--- a/bivariate.xlsx
+++ b/bivariate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinzi\OneDrive\Desktop\Airbnb Data Challenge\Airbnb-Data-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B029E-5246-4957-AD93-AFE3B01EB768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D2D495-892D-477A-843B-C4BB36C4DFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1455" windowWidth="24705" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1410" windowWidth="24705" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
   <si>
     <t>interactions</t>
   </si>
@@ -264,9 +264,6 @@
     <t>7-8</t>
   </si>
   <si>
-    <t>8-10</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -801,6 +798,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="749774272"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1248,6 +1246,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="898643800"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1307,6 +1306,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="898637896"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -1365,6 +1365,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="898639208"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1831,6 +1832,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="882829848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1889,6 +1891,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="882828536"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -1947,6 +1950,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="882832472"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2413,6 +2417,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="874044376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2472,6 +2477,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="874042408"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -2530,6 +2536,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874043064"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2984,6 +2991,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="899877024"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3042,6 +3050,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="899876040"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -3100,6 +3109,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="899877680"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3554,6 +3564,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="904793600"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3613,6 +3624,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="904794584"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -3671,6 +3683,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="904787368"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4125,6 +4138,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="912125664"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4183,6 +4197,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="912125336"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -4241,6 +4256,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="912119432"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4435,7 +4451,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>&lt;=1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4450,7 +4466,7 @@
                   <c:v>7-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-10</c:v>
+                  <c:v>9-10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>&gt;10</c:v>
@@ -4541,7 +4557,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>&lt;=1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4556,7 +4572,7 @@
                   <c:v>7-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-10</c:v>
+                  <c:v>9-10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>&gt;10</c:v>
@@ -4571,25 +4587,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.9574621000000003E-2</c:v>
+                  <c:v>6.9574621485219895E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0846722999999995E-2</c:v>
+                  <c:v>8.0846722774802302E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7619898999999997E-2</c:v>
+                  <c:v>6.7619898719094407E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8899675999999998E-2</c:v>
+                  <c:v>5.8899676375404497E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9586776999999999E-2</c:v>
+                  <c:v>4.9586776859504099E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6410255999999999E-2</c:v>
+                  <c:v>5.6410256410256397E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2048193E-2</c:v>
+                  <c:v>1.20481927710843E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,6 +4675,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="899887848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4717,6 +4734,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="899885552"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -4775,6 +4793,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="899889488"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4897,9 +4916,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Book it</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4969,7 +4989,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>&lt;=1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4984,7 +5004,7 @@
                   <c:v>7-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-10</c:v>
+                  <c:v>9-10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>&gt;10</c:v>
@@ -4999,7 +5019,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>3205</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1922</c:v>
@@ -5014,17 +5034,14 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1642</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6448-4C4D-8FBE-B1982FEDB856}"/>
+              <c16:uniqueId val="{00000000-1482-41AF-9D25-35EC31125A23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5037,8 +5054,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="881948736"/>
-        <c:axId val="881954312"/>
+        <c:axId val="658689952"/>
+        <c:axId val="658690280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5075,7 +5092,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>&lt;=1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -5090,7 +5107,7 @@
                   <c:v>7-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-10</c:v>
+                  <c:v>9-10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>&gt;10</c:v>
@@ -5105,22 +5122,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.42105263199999998</c:v>
+                  <c:v>0.48861154446177801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45941727399999999</c:v>
+                  <c:v>0.45941727367325702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44224422400000002</c:v>
+                  <c:v>0.44224422442244199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37037037</c:v>
+                  <c:v>0.37037037037037002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.355932203</c:v>
+                  <c:v>0.35593220338983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53045067000000001</c:v>
+                  <c:v>0.42105263157894701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5128,7 +5145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6448-4C4D-8FBE-B1982FEDB856}"/>
+              <c16:uniqueId val="{00000001-1482-41AF-9D25-35EC31125A23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5142,11 +5159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="881954968"/>
-        <c:axId val="881947096"/>
+        <c:axId val="707943752"/>
+        <c:axId val="707943424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="881948736"/>
+        <c:axId val="658689952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,14 +5206,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881954312"/>
+        <c:crossAx val="658690280"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881954312"/>
+        <c:axId val="658690280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -5248,11 +5265,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881948736"/>
+        <c:crossAx val="658689952"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881947096"/>
+        <c:axId val="707943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5290,13 +5307,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881954968"/>
+        <c:crossAx val="707943752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="881954968"/>
+        <c:axId val="707943752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,7 +5323,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="881947096"/>
+        <c:crossAx val="707943424"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5749,6 +5766,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="752437752"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5808,6 +5826,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="752445624"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -5866,6 +5885,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="752439720"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6348,6 +6368,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="834741128"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6828,6 +6849,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="757304032"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7270,6 +7292,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="556841160"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7328,6 +7351,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="567336776"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -7387,6 +7411,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="881953656"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7829,6 +7854,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="879109992"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7888,6 +7914,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="879114256"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -7946,6 +7973,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="879110320"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8496,6 +8524,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="879360576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8554,6 +8583,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="879365824"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -8612,6 +8642,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="879362544"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9162,6 +9193,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="898907280"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9221,6 +9253,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="898907608"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -9279,6 +9312,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="891356136"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9721,6 +9755,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="891196472"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9779,6 +9814,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="891201392"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -9837,6 +9873,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="891202376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -19918,23 +19955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>576262</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1519E6F-9A4F-4ECC-BCE6-70C8BC4523A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6D4D24-C2AB-46D1-A1B5-F27F762B4A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20220,8 +20257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20354,7 +20391,7 @@
         <v>43990</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1590</v>
@@ -20375,7 +20412,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4">
         <v>1165</v>
@@ -22010,7 +22047,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123">
         <v>134</v>
@@ -22031,7 +22068,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K123">
         <v>297</v>
@@ -23044,38 +23081,38 @@
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>54</v>
-      </c>
-      <c r="B221" t="s">
-        <v>54</v>
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
       </c>
       <c r="C221">
         <v>2774</v>
       </c>
       <c r="D221">
-        <v>6.9574621000000003E-2</v>
+        <v>6.9574621485219895E-2</v>
       </c>
       <c r="E221">
-        <v>19</v>
+        <v>3205</v>
       </c>
       <c r="F221">
-        <v>0.42105263199999998</v>
+        <v>0.48861154446177801</v>
       </c>
       <c r="G221">
-        <v>11</v>
+        <v>2909</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
-      <c r="K221" t="s">
-        <v>54</v>
+      <c r="K221">
+        <v>1</v>
       </c>
       <c r="L221">
-        <v>19</v>
+        <v>3205</v>
       </c>
       <c r="M221">
-        <v>0.42105263199999998</v>
+        <v>0.48861154446177801</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -23089,13 +23126,13 @@
         <v>3921</v>
       </c>
       <c r="D222">
-        <v>8.0846722999999995E-2</v>
+        <v>8.0846722774802302E-2</v>
       </c>
       <c r="E222">
         <v>1922</v>
       </c>
       <c r="F222">
-        <v>0.45941727399999999</v>
+        <v>0.45941727367325702</v>
       </c>
       <c r="G222">
         <v>1515</v>
@@ -23110,7 +23147,7 @@
         <v>1922</v>
       </c>
       <c r="M222">
-        <v>0.45941727399999999</v>
+        <v>0.45941727367325702</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -23124,13 +23161,13 @@
         <v>3357</v>
       </c>
       <c r="D223">
-        <v>6.7619898999999997E-2</v>
+        <v>6.7619898719094407E-2</v>
       </c>
       <c r="E223">
         <v>606</v>
       </c>
       <c r="F223">
-        <v>0.44224422400000002</v>
+        <v>0.44224422442244199</v>
       </c>
       <c r="G223">
         <v>403</v>
@@ -23145,7 +23182,7 @@
         <v>606</v>
       </c>
       <c r="M223">
-        <v>0.44224422400000002</v>
+        <v>0.44224422442244199</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -23159,13 +23196,13 @@
         <v>1545</v>
       </c>
       <c r="D224">
-        <v>5.8899675999999998E-2</v>
+        <v>5.8899676375404497E-2</v>
       </c>
       <c r="E224">
         <v>189</v>
       </c>
       <c r="F224">
-        <v>0.37037037</v>
+        <v>0.37037037037037002</v>
       </c>
       <c r="G224">
         <v>100</v>
@@ -23180,7 +23217,7 @@
         <v>189</v>
       </c>
       <c r="M224">
-        <v>0.37037037</v>
+        <v>0.37037037037037002</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -23194,13 +23231,13 @@
         <v>484</v>
       </c>
       <c r="D225">
-        <v>4.9586776999999999E-2</v>
+        <v>4.9586776859504099E-2</v>
       </c>
       <c r="E225">
         <v>59</v>
       </c>
       <c r="F225">
-        <v>0.355932203</v>
+        <v>0.35593220338983</v>
       </c>
       <c r="G225">
         <v>18</v>
@@ -23215,7 +23252,7 @@
         <v>59</v>
       </c>
       <c r="M225">
-        <v>0.355932203</v>
+        <v>0.35593220338983</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -23223,34 +23260,34 @@
         <v>44084</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C226">
         <v>195</v>
       </c>
       <c r="D226">
-        <v>5.6410255999999999E-2</v>
+        <v>5.6410256410256397E-2</v>
       </c>
       <c r="E226">
-        <v>1642</v>
+        <v>19</v>
       </c>
       <c r="F226">
-        <v>0.53045067000000001</v>
+        <v>0.42105263157894701</v>
       </c>
       <c r="G226">
-        <v>1435</v>
+        <v>11</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="L226">
-        <v>1642</v>
+        <v>19</v>
       </c>
       <c r="M226">
-        <v>0.53045067000000001</v>
+        <v>0.42105263157894701</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -23264,13 +23301,10 @@
         <v>83</v>
       </c>
       <c r="D227">
-        <v>1.2048193E-2</v>
+        <v>1.20481927710843E-2</v>
       </c>
       <c r="K227" t="s">
         <v>72</v>
-      </c>
-      <c r="L227">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
